--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia.xie\Documents\GitHub\dh-eastasia-data\CrossAsia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Numbers of Databases of CrossAs" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Name of Crossasia Subscribed Da" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="CNKI search terms" sheetId="3" r:id="rId6"/>
+    <sheet name="Numbers of Databases of CrossAs" sheetId="1" r:id="rId1"/>
+    <sheet name="Name of Crossasia Subscribed Da" sheetId="2" r:id="rId2"/>
+    <sheet name="CNKI search terms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -596,21 +604,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm-dd"/>
+    <numFmt numFmtId="164" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -620,11 +630,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -632,9 +648,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -649,6 +667,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -660,48 +679,70 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -710,161 +751,135 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1054,32 +1069,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="23.43"/>
-    <col customWidth="1" min="3" max="3" width="20.14"/>
-    <col customWidth="1" min="4" max="4" width="21.29"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
-    <col customWidth="1" min="6" max="6" width="19.29"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1090,7 +1108,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1113,94 +1131,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="6">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="C4" s="6">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="D4" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="6">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="C7" s="6">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="D7" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1211,7 +1229,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>3</v>
@@ -1232,28 +1250,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F12" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="6">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1261,29 +1279,29 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1291,64 +1309,64 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1375,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1385,11 +1403,11 @@
         <v>29</v>
       </c>
       <c r="D24" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="63.0" customHeight="1">
+    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -1403,7 +1421,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1415,7 +1433,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1426,14 +1444,14 @@
         <v>36</v>
       </c>
       <c r="D27" s="6">
-        <v>629.0</v>
+        <v>629</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1444,12 +1462,12 @@
         <v>40</v>
       </c>
       <c r="D28" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1460,12 +1478,12 @@
         <v>43</v>
       </c>
       <c r="D29" s="12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1473,83 +1491,84 @@
       <c r="E30" s="13"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="14"/>
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="11"/>
       <c r="C34" s="16"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57"/>
-    <col customWidth="1" min="2" max="2" width="36.0"/>
-    <col customWidth="1" min="3" max="3" width="56.43"/>
-    <col customWidth="1" min="4" max="9" width="38.14"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="4" max="9" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1574,7 +1593,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>49</v>
@@ -1602,7 +1621,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -1629,7 +1648,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
         <v>65</v>
@@ -1654,7 +1673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>72</v>
@@ -1676,7 +1695,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>77</v>
@@ -1702,7 +1721,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>84</v>
@@ -1726,7 +1745,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
         <v>90</v>
@@ -1743,7 +1762,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
         <v>93</v>
@@ -1760,7 +1779,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="11" t="s">
         <v>96</v>
@@ -1777,7 +1796,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
         <v>99</v>
@@ -1793,7 +1812,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="11" t="s">
         <v>102</v>
@@ -1810,7 +1829,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>105</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>113</v>
       </c>
@@ -1852,7 +1871,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>117</v>
       </c>
@@ -1866,7 +1885,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>119</v>
       </c>
@@ -1876,7 +1895,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
@@ -1884,7 +1903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
@@ -1900,7 +1919,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>127</v>
       </c>
@@ -1908,7 +1927,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>129</v>
       </c>
@@ -1916,12 +1935,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>132</v>
       </c>
@@ -1929,19 +1948,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>136</v>
       </c>
@@ -1949,13 +1968,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>139</v>
       </c>
@@ -1963,7 +1982,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>141</v>
       </c>
@@ -1971,35 +1990,35 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
@@ -2007,42 +2026,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>157</v>
       </c>
@@ -2050,12 +2069,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>160</v>
       </c>
@@ -2063,7 +2082,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>162</v>
       </c>
@@ -2071,43 +2090,44 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C49" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.57"/>
-    <col customWidth="1" min="2" max="2" width="24.0"/>
-    <col customWidth="1" min="3" max="3" width="8.86"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="8.14"/>
-    <col customWidth="1" min="6" max="6" width="8.43"/>
-    <col customWidth="1" min="7" max="7" width="10.43"/>
-    <col customWidth="1" min="8" max="8" width="7.0"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1">
+    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>166</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="1">
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -2157,472 +2177,472 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="30">
-        <f t="shared" ref="B4:B17" si="1">C4+F4</f>
+        <f t="shared" ref="B4:B17" si="0">C4+F4</f>
         <v>110</v>
       </c>
       <c r="C4" s="31">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="D4" s="9">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="E4" s="32" t="str">
-        <f t="shared" ref="E4:E17" si="2">round(D4/C4*100,2) &amp; "%"</f>
+        <f t="shared" ref="E4:E17" si="1">ROUND(D4/C4*100,2) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="F4" s="9">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="32" t="str">
-        <f t="shared" ref="H4:H13" si="3">round(G4/F4*100,2) &amp; "%"</f>
-        <v>55.56%</v>
+        <f t="shared" ref="H4:H13" si="2">ROUND(G4/F4*100,2) &amp; "%"</f>
+        <v>55,56%</v>
       </c>
       <c r="I4" s="33">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="30">
+        <f t="shared" si="0"/>
+        <v>139</v>
+      </c>
+      <c r="C5" s="31">
+        <v>115</v>
+      </c>
+      <c r="D5" s="9">
+        <v>114</v>
+      </c>
+      <c r="E5" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-      <c r="C5" s="31">
-        <v>115.0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>114.0</v>
-      </c>
-      <c r="E5" s="32" t="str">
+        <v>99,13%</v>
+      </c>
+      <c r="F5" s="9">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9">
+        <v>21</v>
+      </c>
+      <c r="H5" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>99.13%</v>
-      </c>
-      <c r="F5" s="9">
-        <v>24.0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>21.0</v>
-      </c>
-      <c r="H5" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>87.5%</v>
+        <v>87,5%</v>
       </c>
       <c r="I5" s="33">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="J5" s="35" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>179</v>
       </c>
       <c r="B6" s="30">
+        <f t="shared" si="0"/>
+        <v>467</v>
+      </c>
+      <c r="C6" s="31">
+        <v>444</v>
+      </c>
+      <c r="D6" s="9">
+        <v>444</v>
+      </c>
+      <c r="E6" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>467</v>
-      </c>
-      <c r="C6" s="31">
-        <v>444.0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>444.0</v>
-      </c>
-      <c r="E6" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F6" s="9">
+        <v>23</v>
+      </c>
+      <c r="G6" s="9">
+        <v>14</v>
+      </c>
+      <c r="H6" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F6" s="9">
-        <v>23.0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="H6" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>60.87%</v>
+        <v>60,87%</v>
       </c>
       <c r="I6" s="33">
-        <v>44223.0</v>
+        <v>44223</v>
       </c>
       <c r="J6" s="34"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>180</v>
       </c>
       <c r="B7" s="30">
+        <f t="shared" si="0"/>
+        <v>742</v>
+      </c>
+      <c r="C7" s="31">
+        <v>280</v>
+      </c>
+      <c r="D7" s="9">
+        <v>280</v>
+      </c>
+      <c r="E7" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>742</v>
-      </c>
-      <c r="C7" s="31">
-        <v>280.0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>280.0</v>
-      </c>
-      <c r="E7" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F7" s="9">
+        <v>462</v>
+      </c>
+      <c r="G7" s="9">
+        <v>13</v>
+      </c>
+      <c r="H7" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F7" s="9">
-        <v>462.0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>13.0</v>
-      </c>
-      <c r="H7" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>2.81%</v>
+        <v>2,81%</v>
       </c>
       <c r="I7" s="33">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="J7" s="34"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>181</v>
       </c>
       <c r="B8" s="30">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C8" s="31">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="C8" s="31">
-        <v>50.0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>50.0</v>
-      </c>
-      <c r="E8" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F8" s="9">
+        <v>102</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+      <c r="H8" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F8" s="9">
-        <v>102.0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="H8" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>3.92%</v>
+        <v>3,92%</v>
       </c>
       <c r="I8" s="33">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="J8" s="34"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="30">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="C9" s="31">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="C9" s="31">
-        <v>30.0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>30.0</v>
-      </c>
-      <c r="E9" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F9" s="9">
+        <v>99</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F9" s="9">
-        <v>99.0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="H9" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>8.08%</v>
+        <v>8,08%</v>
       </c>
       <c r="I9" s="33">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="J9" s="34"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>183</v>
       </c>
       <c r="B10" s="30">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="C10" s="31">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9">
+        <v>14</v>
+      </c>
+      <c r="E10" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="C10" s="31">
-        <v>14.0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="E10" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F10" s="9">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1</v>
+      </c>
+      <c r="H10" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F10" s="9">
-        <v>53.0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>1.89%</v>
+        <v>1,89%</v>
       </c>
       <c r="I10" s="33">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="30">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="31">
+        <v>9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>9</v>
+      </c>
+      <c r="E11" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="C11" s="31">
-        <v>9.0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>9.0</v>
-      </c>
-      <c r="E11" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F11" s="31">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2</v>
+      </c>
+      <c r="H11" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F11" s="31">
-        <v>9.0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H11" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>22.22%</v>
+        <v>22,22%</v>
       </c>
       <c r="I11" s="33">
-        <v>44224.0</v>
+        <v>44224</v>
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="30">
+        <f t="shared" si="0"/>
+        <v>481</v>
+      </c>
+      <c r="C12" s="31">
+        <v>303</v>
+      </c>
+      <c r="D12" s="9">
+        <v>303</v>
+      </c>
+      <c r="E12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>481</v>
-      </c>
-      <c r="C12" s="31">
-        <v>303.0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>303.0</v>
-      </c>
-      <c r="E12" s="32" t="str">
-        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F12" s="31">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="G12" s="9">
         <f>32+26+28+28</f>
         <v>114</v>
       </c>
       <c r="H12" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>64.04%</v>
+        <f t="shared" si="2"/>
+        <v>64,04%</v>
       </c>
       <c r="I12" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J12" s="34"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>186</v>
       </c>
       <c r="B13" s="30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C13" s="31">
+        <v>142</v>
+      </c>
+      <c r="D13" s="9">
+        <v>142</v>
+      </c>
+      <c r="E13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="C13" s="31">
-        <v>142.0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>142.0</v>
-      </c>
-      <c r="E13" s="32" t="str">
+        <v>100%</v>
+      </c>
+      <c r="F13" s="31">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
-      </c>
-      <c r="F13" s="31">
-        <v>3.0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="32" t="str">
-        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="I13" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="30">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="36">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9">
+        <v>8</v>
+      </c>
+      <c r="E14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="36">
-        <v>8.0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="E14" s="32" t="str">
-        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F14" s="36">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="37" t="s">
         <v>188</v>
       </c>
       <c r="I14" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>189</v>
       </c>
       <c r="B15" s="30">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="C15" s="36">
+        <v>247</v>
+      </c>
+      <c r="D15" s="9">
+        <v>247</v>
+      </c>
+      <c r="E15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>299</v>
-      </c>
-      <c r="C15" s="36">
-        <v>247.0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>247.0</v>
-      </c>
-      <c r="E15" s="32" t="str">
-        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F15" s="31">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="G15" s="9">
         <f>50-19+1</f>
         <v>32</v>
       </c>
       <c r="H15" s="32" t="str">
-        <f t="shared" ref="H15:H17" si="4">round(G15/F15*100,2) &amp; "%"</f>
-        <v>61.54%</v>
+        <f t="shared" ref="H15:H17" si="3">ROUND(G15/F15*100,2) &amp; "%"</f>
+        <v>61,54%</v>
       </c>
       <c r="I15" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="30">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="C16" s="36">
+        <v>145</v>
+      </c>
+      <c r="D16" s="9">
+        <v>145</v>
+      </c>
+      <c r="E16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>151</v>
-      </c>
-      <c r="C16" s="36">
-        <v>145.0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>145.0</v>
-      </c>
-      <c r="E16" s="32" t="str">
-        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F16" s="36">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G16" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="I16" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>191</v>
       </c>
       <c r="B17" s="30">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="36">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
+        <v>14</v>
+      </c>
+      <c r="E17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="36">
-        <v>14.0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>14.0</v>
-      </c>
-      <c r="E17" s="32" t="str">
-        <f t="shared" si="2"/>
         <v>100%</v>
       </c>
       <c r="F17" s="36">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0%</v>
       </c>
       <c r="I17" s="33">
-        <v>44225.0</v>
+        <v>44225</v>
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40"/>
@@ -2635,6 +2655,6 @@
       <c r="J18" s="28"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
   <si>
     <t>CrossAsia</t>
   </si>
@@ -599,6 +599,18 @@
   </si>
   <si>
     <t>民国报纸 数字化</t>
+  </si>
+  <si>
+    <t>OCR</t>
+  </si>
+  <si>
+    <t>OCR 民国</t>
+  </si>
+  <si>
+    <t>OCR 古籍</t>
+  </si>
+  <si>
+    <t>光学字符识别</t>
   </si>
 </sst>
 </file>
@@ -633,7 +645,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -773,11 +785,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -848,19 +966,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2106,9 +2238,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2182,7 +2316,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="30">
-        <f t="shared" ref="B4:B17" si="0">C4+F4</f>
+        <f t="shared" ref="B4:B22" si="0">C4+F4</f>
         <v>110</v>
       </c>
       <c r="C4" s="31">
@@ -2643,16 +2777,103 @@
       <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="42">
+        <f t="shared" si="0"/>
+        <v>1271</v>
+      </c>
+      <c r="C19" s="41">
+        <v>1151</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="44">
+        <v>120</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="30">
+        <f t="shared" si="0"/>
+        <v>6209</v>
+      </c>
+      <c r="C20" s="38">
+        <v>5254</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="48">
+        <v>955</v>
+      </c>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="38">
+        <v>4</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="48">
+        <v>1</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="50">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C22" s="51">
+        <v>15</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54">
+        <v>17</v>
+      </c>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="198">
   <si>
     <t>CrossAsia</t>
   </si>
@@ -611,6 +611,12 @@
   </si>
   <si>
     <t>光学字符识别</t>
+  </si>
+  <si>
+    <t>CNN 汉字识别</t>
+  </si>
+  <si>
+    <t>deep learning 汉字识别</t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -891,11 +897,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -993,6 +1010,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2238,10 +2295,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2316,7 +2373,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="30">
-        <f t="shared" ref="B4:B22" si="0">C4+F4</f>
+        <f t="shared" ref="B4:B23" si="0">C4+F4</f>
         <v>110</v>
       </c>
       <c r="C4" s="31">
@@ -2777,77 +2834,65 @@
       <c r="J17" s="34"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="37"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B20" s="42">
         <f t="shared" si="0"/>
         <v>1271</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C20" s="59">
         <v>1151</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="44">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="44">
         <v>120</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="43"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="43"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B21" s="30">
         <f t="shared" si="0"/>
         <v>6209</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C21" s="38">
         <v>5254</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="48">
-        <v>955</v>
-      </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="B21" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C21" s="38">
-        <v>4</v>
       </c>
       <c r="D21" s="46"/>
       <c r="E21" s="46"/>
       <c r="F21" s="48">
-        <v>1</v>
+        <v>955</v>
       </c>
       <c r="G21" s="46"/>
       <c r="H21" s="47"/>
@@ -2855,25 +2900,160 @@
       <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="38">
+        <v>4</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="48">
+        <v>1</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B23" s="50">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C23" s="51">
         <v>15</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="54">
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="54">
         <v>17</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="60">
+        <f t="shared" ref="B25:B26" si="4">C25+F25</f>
+        <v>59</v>
+      </c>
+      <c r="C25" s="64">
+        <v>17</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="41">
+        <v>42</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="43"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="63">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="C26" s="63">
+        <v>50</v>
+      </c>
+      <c r="D26" s="40">
+        <v>50</v>
+      </c>
+      <c r="E26" s="65" t="str">
+        <f t="shared" ref="E26" si="5">ROUND(D26/C26*100,2) &amp; "%"</f>
+        <v>100%</v>
+      </c>
+      <c r="F26" s="40">
+        <v>102</v>
+      </c>
+      <c r="G26" s="40">
+        <v>4</v>
+      </c>
+      <c r="H26" s="65" t="str">
+        <f t="shared" ref="H26" si="6">ROUND(G26/F26*100,2) &amp; "%"</f>
+        <v>3,92%</v>
+      </c>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="46"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="63">
+        <f t="shared" ref="B28:B29" si="7">C28+F28</f>
+        <v>44</v>
+      </c>
+      <c r="C28" s="66">
+        <v>5</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="67">
+        <v>39</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="43"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="61">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="C29" s="61">
+        <v>30</v>
+      </c>
+      <c r="D29" s="56">
+        <v>30</v>
+      </c>
+      <c r="E29" s="62" t="str">
+        <f t="shared" ref="E29" si="8">ROUND(D29/C29*100,2) &amp; "%"</f>
+        <v>100%</v>
+      </c>
+      <c r="F29" s="56">
+        <v>99</v>
+      </c>
+      <c r="G29" s="56">
+        <v>8</v>
+      </c>
+      <c r="H29" s="62" t="str">
+        <f t="shared" ref="H29" si="9">ROUND(G29/F29*100,2) &amp; "%"</f>
+        <v>8,08%</v>
+      </c>
+      <c r="I29" s="58"/>
+      <c r="J29" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -1621,7 +1621,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2296,11 +2296,11 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="3" ySplit="10" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -1051,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,6 +1064,4532 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$20:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>光学字符识别</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$B$20:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2085-462B-929F-2466E4BDFF2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="487485680"/>
+        <c:axId val="487483384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="487485680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487483384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="487483384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="487485680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$25:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>CNN 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>卷积神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>deep learning 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>深度学习 汉字识别</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$B$25:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F485-4324-AC25-6EB70D07B20C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="482509816"/>
+        <c:axId val="482518672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="482509816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482518672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="482518672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="482509816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>民国报纸</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民国资料</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>民国文献</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>卷积神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>深度学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>机器学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>古籍 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>民国 数据库</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>民国文献 数据库</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民国报纸 数据库</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>民国 数字化</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>民国文献 数字化</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民国报纸 数字化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$C$4:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7481-4D13-BC99-928068D8B210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accessible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>民国报纸</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民国资料</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>民国文献</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>卷积神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>深度学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>机器学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>古籍 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>民国 数据库</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>民国文献 数据库</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民国报纸 数据库</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>民国 数字化</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>民国文献 数字化</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民国报纸 数字化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$D$4:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7481-4D13-BC99-928068D8B210}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="491867720"/>
+        <c:axId val="491867392"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>民国报纸</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>民国资料</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>民国文献</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>卷积神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>深度学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>机器学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>古籍 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>民国 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>民国文献 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>民国报纸 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>民国 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>民国文献 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>民国报纸 数字化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$B$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>467</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>742</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>481</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7481-4D13-BC99-928068D8B210}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="491867720"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491867392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="491867392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491867720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>民国报纸</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民国资料</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>民国文献</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>卷积神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>深度学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>机器学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>古籍 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>民国 数据库</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>民国文献 数据库</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民国报纸 数据库</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>民国 数字化</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>民国文献 数字化</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民国报纸 数字化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$F$4:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-04CA-4F46-B063-FE9B6D6369F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accessible</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CNKI search terms'!$A$4:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>民国报纸</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>民国资料</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>民国文献</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>卷积神经网络 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>深度学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>机器学习 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>古籍 汉字识别</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>民国 数据库</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>民国文献 数据库</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>民国报纸 数据库</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>民国 数字化</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>民国文献 数字化</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>民国报纸 数字化</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CNKI search terms'!$G$4:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-04CA-4F46-B063-FE9B6D6369F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="559141800"/>
+        <c:axId val="559138192"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$B$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>民国报纸</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>民国资料</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>民国文献</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>卷积神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>深度学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>机器学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>古籍 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>民国 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>民国文献 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>民国报纸 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>民国 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>民国文献 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>民国报纸 数字化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$B$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>467</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>742</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>481</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>299</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>15</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-04CA-4F46-B063-FE9B6D6369F0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$C$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>民国报纸</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>民国资料</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>民国文献</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>卷积神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>深度学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>机器学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>古籍 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>民国 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>民国文献 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>民国报纸 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>民国 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>民国文献 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>民国报纸 数字化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$C$4:$C$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>444</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>303</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>247</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-04CA-4F46-B063-FE9B6D6369F0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Accessible</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>民国报纸</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>民国资料</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>民国文献</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>卷积神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>深度学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>机器学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>古籍 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>民国 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>民国文献 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>民国报纸 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>民国 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>民国文献 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>民国报纸 数字化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$D$4:$D$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>444</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>280</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>303</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>247</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-04CA-4F46-B063-FE9B6D6369F0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$E$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>%</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$A$4:$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>民国报纸</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>民国资料</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>民国文献</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>卷积神经网络 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>深度学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>机器学习 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>古籍 汉字识别</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>民国 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>民国文献 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>民国报纸 数据库</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>民国 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>民国文献 数字化</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>民国报纸 数字化</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'CNKI search terms'!$E$4:$E$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-04CA-4F46-B063-FE9B6D6369F0}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="559141800"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559138192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="559138192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559141800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257181</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19056</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219081</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>942981</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>847731</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276231</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>819155</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>33549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1621,7 +6147,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -2296,11 +6822,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="3" ySplit="10" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2864,7 +7387,7 @@
         <v>195</v>
       </c>
       <c r="B20" s="42">
-        <f t="shared" si="0"/>
+        <f>C20+F20</f>
         <v>1271</v>
       </c>
       <c r="C20" s="58">
@@ -2995,7 +7518,7 @@
       <c r="I26" s="51"/>
       <c r="J26" s="52"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="45"/>
       <c r="B27" s="68"/>
       <c r="C27" s="69"/>
@@ -3059,5 +7582,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
+++ b/CrossAsia/Numbers and Names of Databases in CrossAsia.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jia.xie\Documents\GitHub\dh-eastasia-data\CrossAsia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/dh-eastasia-data/CrossAsia/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCFE19D-2A80-7A42-A855-B428A74C516B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8865" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21580" windowHeight="8860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers of Databases of CrossAs" sheetId="1" r:id="rId1"/>
     <sheet name="Name of Crossasia Subscribed Da" sheetId="2" r:id="rId2"/>
     <sheet name="CNKI search terms" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -622,7 +623,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-dd"/>
   </numFmts>
@@ -1264,7 +1265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1272,21 +1273,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1298,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1362,7 +1363,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1383,7 +1384,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1404,10 +1405,10 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1419,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="5" t="s">
         <v>3</v>
@@ -1439,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1476,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +1491,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1503,7 +1504,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1516,7 +1517,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1530,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1543,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1556,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
@@ -1564,7 +1565,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
@@ -1610,7 +1611,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>32</v>
       </c>
@@ -1622,7 +1623,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="42" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>34</v>
       </c>
@@ -1640,7 +1641,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1673,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1680,54 +1681,54 @@
       <c r="E30" s="13"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="16"/>
       <c r="C32" s="11"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="11"/>
       <c r="C34" s="16"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
-    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C36" s="11"/>
     </row>
-    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C37" s="11"/>
     </row>
-    <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C38" s="11"/>
     </row>
-    <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C39" s="11"/>
     </row>
-    <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C40" s="11"/>
     </row>
   </sheetData>
@@ -1736,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1744,20 +1745,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
-    <col min="4" max="9" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
+    <col min="4" max="9" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1782,7 +1783,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13"/>
       <c r="B3" s="13" t="s">
         <v>49</v>
@@ -1810,7 +1811,7 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>57</v>
@@ -1837,7 +1838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="17" t="s">
         <v>65</v>
@@ -1862,7 +1863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13" t="s">
         <v>72</v>
@@ -1884,7 +1885,7 @@
       </c>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13" t="s">
         <v>77</v>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>84</v>
@@ -1934,7 +1935,7 @@
       <c r="I8" s="13"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
         <v>90</v>
@@ -1951,7 +1952,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="16" t="s">
         <v>93</v>
@@ -1968,7 +1969,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="11" t="s">
         <v>96</v>
@@ -1985,7 +1986,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="11" t="s">
         <v>99</v>
@@ -2001,7 +2002,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="11" t="s">
         <v>102</v>
@@ -2018,7 +2019,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>105</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18" t="s">
         <v>109</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>113</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>117</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>119</v>
       </c>
@@ -2084,7 +2085,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>121</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>125</v>
       </c>
@@ -2108,7 +2109,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>127</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>129</v>
       </c>
@@ -2124,12 +2125,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="C24" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>132</v>
       </c>
@@ -2137,19 +2138,19 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>136</v>
       </c>
@@ -2157,13 +2158,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>139</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>141</v>
       </c>
@@ -2179,35 +2180,35 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>148</v>
       </c>
@@ -2215,42 +2216,42 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>157</v>
       </c>
@@ -2258,12 +2259,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>160</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>162</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>164</v>
       </c>
@@ -2291,34 +2292,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>166</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>172</v>
       </c>
@@ -2368,7 +2369,7 @@
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>176</v>
       </c>
@@ -2401,7 +2402,7 @@
       </c>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>177</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>179</v>
       </c>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>180</v>
       </c>
@@ -2502,7 +2503,7 @@
       </c>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>181</v>
       </c>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>182</v>
       </c>
@@ -2568,7 +2569,7 @@
       </c>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>183</v>
       </c>
@@ -2601,7 +2602,7 @@
       </c>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>184</v>
       </c>
@@ -2634,7 +2635,7 @@
       </c>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>185</v>
       </c>
@@ -2668,7 +2669,7 @@
       </c>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>186</v>
       </c>
@@ -2701,7 +2702,7 @@
       </c>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>187</v>
       </c>
@@ -2733,7 +2734,7 @@
       </c>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>189</v>
       </c>
@@ -2767,7 +2768,7 @@
       </c>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>190</v>
       </c>
@@ -2800,7 +2801,7 @@
       </c>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>191</v>
       </c>
@@ -2833,7 +2834,7 @@
       </c>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="36"/>
@@ -2845,7 +2846,7 @@
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="39"/>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
@@ -2857,7 +2858,7 @@
       <c r="I19" s="39"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="44" t="s">
         <v>195</v>
       </c>
@@ -2878,7 +2879,7 @@
       <c r="I20" s="41"/>
       <c r="J20" s="43"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="45" t="s">
         <v>192</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="I21" s="46"/>
       <c r="J21" s="47"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="48" t="s">
         <v>193</v>
       </c>
@@ -2920,7 +2921,7 @@
       <c r="I22" s="46"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="49" t="s">
         <v>194</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="I23" s="52"/>
       <c r="J23" s="53"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="55" t="s">
         <v>196</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="I25" s="41"/>
       <c r="J25" s="43"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57" t="s">
         <v>181</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="I26" s="52"/>
       <c r="J26" s="53"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="46"/>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
@@ -3003,7 +3004,7 @@
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="44" t="s">
         <v>197</v>
       </c>
@@ -3024,7 +3025,7 @@
       <c r="I28" s="41"/>
       <c r="J28" s="43"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57" t="s">
         <v>182</v>
       </c>
